--- a/Architecture and parameter search/results/separate/cage/summaryCage.xlsx
+++ b/Architecture and parameter search/results/separate/cage/summaryCage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Research\deepbrain\results\separate\cage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5EAC4A-1C81-43C7-8270-D985D4C9E46E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63981AF-C562-476A-80EE-948F9696B610}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{07D093C8-D8AC-4A21-B77D-BBEB102420FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="13" xr2:uid="{07D093C8-D8AC-4A21-B77D-BBEB102420FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp Description" sheetId="10" r:id="rId1"/>
@@ -23,12 +23,31 @@
     <sheet name="cage_Exp7" sheetId="7" r:id="rId8"/>
     <sheet name="cage_Exp8" sheetId="11" r:id="rId9"/>
     <sheet name="cage_Exp9" sheetId="12" r:id="rId10"/>
-    <sheet name="summary" sheetId="9" r:id="rId11"/>
+    <sheet name="cage_ExpChromosome9" sheetId="13" r:id="rId11"/>
+    <sheet name="cage_ExpChromosome19" sheetId="14" r:id="rId12"/>
+    <sheet name="summary" sheetId="9" r:id="rId13"/>
+    <sheet name="summaryCr" sheetId="15" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">(summaryCr!$B$1:$E$1,summaryCr!$G$1)</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">(summaryCr!$B$2:$E$2,summaryCr!$G$2)</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">(summaryCr!$B$4:$E$4,summaryCr!$G$4)</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">summaryCr!$A$2</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">summaryCr!$A$3</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">summaryCr!$A$4</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">(summaryCr!$B$3:$E$3,summaryCr!$G$3)</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">(summaryCr!$B$4:$E$4,summaryCr!$G$4)</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">summaryCr!$A$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">summaryCr!$A$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">summaryCr!$A$4</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">(summaryCr!$B$1:$E$1,summaryCr!$G$1)</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">(summaryCr!$B$2:$E$2,summaryCr!$G$2)</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">(summaryCr!$B$3:$E$3,summaryCr!$G$3)</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="41">
   <si>
     <t>trainLoss</t>
   </si>
@@ -159,6 +178,15 @@
   </si>
   <si>
     <t>16, 16</t>
+  </si>
+  <si>
+    <t>cr_01 (exp7)</t>
+  </si>
+  <si>
+    <t>cr_09 (exp7)</t>
+  </si>
+  <si>
+    <t>cr_19 (exp7)</t>
   </si>
 </sst>
 </file>
@@ -5893,8 +5921,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-AU"/>
-              <a:t>Last Epoch metrics per config.</a:t>
+              <a:t>TrainingVsTesting</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> metrics</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5930,108 +5963,78 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary!$B$1</c:f>
+              <c:f>cage_ExpChromosome9!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>testLoss</c:v>
+                  <c:v>trainLoss</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>summary!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>exp1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>exp2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>exp3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>exp4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>exp5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>exp6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>exp7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>exp8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>exp9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>summary!$B$2:$B$10</c:f>
+              <c:f>cage_ExpChromosome9!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.62</c:v>
+                  <c:v>0.61299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60199999999999998</c:v>
+                  <c:v>0.57499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57399999999999995</c:v>
+                  <c:v>0.55900000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61899999999999999</c:v>
+                  <c:v>0.54600000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.62949999999999995</c:v>
+                  <c:v>0.52500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.63400000000000001</c:v>
+                  <c:v>0.498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.624</c:v>
+                  <c:v>0.47599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.60450000000000004</c:v>
+                  <c:v>0.45700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.60650000000000004</c:v>
+                  <c:v>0.44900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45100000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E6FD-4411-A059-467A5145CF60}"/>
+              <c16:uniqueId val="{00000000-4887-40EB-A113-32D08B935C84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6040,99 +6043,70 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary!$C$1</c:f>
+              <c:f>cage_ExpChromosome9!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>testAcc</c:v>
+                  <c:v>trainTpr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>summary!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>exp1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>exp2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>exp3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>exp4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>exp5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>exp6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>exp7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>exp8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>exp9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>summary!$C$2:$C$10</c:f>
+              <c:f>cage_ExpChromosome9!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.70299999999999996</c:v>
+                  <c:v>0.629</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71499999999999997</c:v>
+                  <c:v>0.65400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71899999999999997</c:v>
+                  <c:v>0.66200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.69499999999999995</c:v>
+                  <c:v>0.66400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6915</c:v>
+                  <c:v>0.68700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.69099999999999995</c:v>
+                  <c:v>0.72799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.70699999999999996</c:v>
+                  <c:v>0.746</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.70299999999999996</c:v>
+                  <c:v>0.76500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.68799999999999994</c:v>
+                  <c:v>0.77200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E6FD-4411-A059-467A5145CF60}"/>
+              <c16:uniqueId val="{00000001-4887-40EB-A113-32D08B935C84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6141,99 +6115,70 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary!$D$1</c:f>
+              <c:f>cage_ExpChromosome9!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>testUncer</c:v>
+                  <c:v>testLoss</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>summary!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>exp1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>exp2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>exp3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>exp4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>exp5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>exp6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>exp7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>exp8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>exp9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>summary!$D$2:$D$10</c:f>
+              <c:f>cage_ExpChromosome9!$H$2:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.129</c:v>
+                  <c:v>0.54100000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.123</c:v>
+                  <c:v>0.52900000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13100000000000001</c:v>
+                  <c:v>0.55500000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13900000000000001</c:v>
+                  <c:v>0.57099999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13650000000000001</c:v>
+                  <c:v>0.52800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.151</c:v>
+                  <c:v>0.58499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.129</c:v>
+                  <c:v>0.55500000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13250000000000001</c:v>
+                  <c:v>0.56399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.13</c:v>
+                  <c:v>0.55100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E6FD-4411-A059-467A5145CF60}"/>
+              <c16:uniqueId val="{00000002-4887-40EB-A113-32D08B935C84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6242,7 +6187,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary!$E$1</c:f>
+              <c:f>cage_ExpChromosome9!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6252,190 +6197,60 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>summary!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>exp1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>exp2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>exp3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>exp4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>exp5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>exp6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>exp7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>exp8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>exp9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>summary!$E$2:$E$10</c:f>
+              <c:f>cage_ExpChromosome9!$K$2:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.74</c:v>
+                  <c:v>0.68200000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72499999999999998</c:v>
+                  <c:v>0.72299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66800000000000004</c:v>
+                  <c:v>0.82299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.69899999999999995</c:v>
+                  <c:v>0.73299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69099999999999995</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.73299999999999998</c:v>
+                  <c:v>0.75800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.74</c:v>
+                  <c:v>0.77100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.73199999999999998</c:v>
+                  <c:v>0.74099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.69299999999999995</c:v>
+                  <c:v>0.74199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.73399999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E6FD-4411-A059-467A5145CF60}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>summary!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>testRoc</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>summary!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>exp1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>exp2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>exp3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>exp4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>exp5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>exp6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>exp7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>exp8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>exp9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>summary!$G$2:$G$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.77800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.78100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.78600000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.74399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.74550000000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.752</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.76800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.75849999999999995</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.77</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E6FD-4411-A059-467A5145CF60}"/>
+              <c16:uniqueId val="{00000003-4887-40EB-A113-32D08B935C84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6447,19 +6262,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="531521224"/>
-        <c:axId val="531523848"/>
-      </c:barChart>
+        <c:smooth val="0"/>
+        <c:axId val="389996504"/>
+        <c:axId val="389989616"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="531521224"/>
+        <c:axId val="389996504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6496,7 +6309,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531523848"/>
+        <c:crossAx val="389989616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6504,7 +6317,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="531523848"/>
+        <c:axId val="389989616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6555,7 +6368,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531521224"/>
+        <c:crossAx val="389996504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7241,6 +7054,2487 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-AU"/>
+              <a:t>Testing metrics</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cage_ExpChromosome9!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testLoss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>cage_ExpChromosome9!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.54100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EECB-495E-B653-04DC4161B406}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cage_ExpChromosome9!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testUncer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>cage_ExpChromosome9!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13300000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EECB-495E-B653-04DC4161B406}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cage_ExpChromosome9!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testTpr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>cage_ExpChromosome9!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.68200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.748</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.73399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EECB-495E-B653-04DC4161B406}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cage_ExpChromosome9!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testRoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>cage_ExpChromosome9!$M$2:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.82799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79600000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EECB-495E-B653-04DC4161B406}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="389990600"/>
+        <c:axId val="389990928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="389990600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389990928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="389990928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389990600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>TrainingVsTesting</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> metrics</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cage_ExpChromosome19!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>trainLoss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>cage_ExpChromosome19!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.61549999999999905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57749999999999901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46550000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D935-4633-9B3F-B0EA021BA757}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cage_ExpChromosome19!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>trainTpr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>cage_ExpChromosome19!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.63500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69849999999999901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73350000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.749</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75449999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.751</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D935-4633-9B3F-B0EA021BA757}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cage_ExpChromosome19!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testLoss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>cage_ExpChromosome19!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.61799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.628</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D935-4633-9B3F-B0EA021BA757}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cage_ExpChromosome19!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testTpr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>cage_ExpChromosome19!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.877</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76500000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D935-4633-9B3F-B0EA021BA757}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="389978464"/>
+        <c:axId val="389983712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="389978464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389983712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="389983712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389978464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Testing metrics</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cage_ExpChromosome19!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testLoss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>cage_ExpChromosome19!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.61799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.628</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8251-4A5F-B074-D3D53FEF7344}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cage_ExpChromosome19!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testUncer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>cage_ExpChromosome19!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.108</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.151</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14299999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8251-4A5F-B074-D3D53FEF7344}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cage_ExpChromosome19!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testTpr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>cage_ExpChromosome19!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.877</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76500000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8251-4A5F-B074-D3D53FEF7344}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cage_ExpChromosome19!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testRoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>cage_ExpChromosome19!$M$2:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.73299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.751</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.748</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.747</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.749</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8251-4A5F-B074-D3D53FEF7344}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="468606704"/>
+        <c:axId val="468608016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="468606704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468608016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="468608016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468606704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Last Epoch metrics per config.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testLoss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>summary!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>exp1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>exp2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>exp3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>exp4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>exp5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>exp6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>exp7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>exp8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>exp9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summary!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62949999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.624</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60450000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60650000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E6FD-4411-A059-467A5145CF60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testAcc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>summary!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>exp1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>exp2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>exp3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>exp4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>exp5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>exp6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>exp7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>exp8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>exp9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summary!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.70299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6915</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68799999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E6FD-4411-A059-467A5145CF60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testUncer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>summary!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>exp1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>exp2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>exp3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>exp4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>exp5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>exp6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>exp7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>exp8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>exp9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summary!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.151</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E6FD-4411-A059-467A5145CF60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testTpr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>summary!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>exp1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>exp2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>exp3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>exp4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>exp5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>exp6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>exp7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>exp8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>exp9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summary!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69299999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E6FD-4411-A059-467A5145CF60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testRoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>summary!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>exp1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>exp2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>exp3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>exp4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>exp5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>exp6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>exp7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>exp8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>exp9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summary!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.77800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74550000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.752</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75849999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E6FD-4411-A059-467A5145CF60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="531521224"/>
+        <c:axId val="531523848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="531521224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="531523848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="531523848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="531521224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
               <a:t>Last epoch scores per metric</a:t>
             </a:r>
           </a:p>
@@ -8098,6 +10392,1130 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="519729952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Exp</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t>7 metrics per chromosome dataset</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summaryCr!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cr_01 (exp7)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(summaryCr!$B$1:$E$1,summaryCr!$G$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>testLoss</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>testAcc</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>testUncer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>testTpr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>testRoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(summaryCr!$B$2:$E$2,summaryCr!$G$2)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.624</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76800000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3806-4413-A61F-4989E136E6A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summaryCr!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cr_09 (exp7)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(summaryCr!$B$1:$E$1,summaryCr!$G$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>testLoss</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>testAcc</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>testUncer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>testTpr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>testRoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(summaryCr!$B$3:$E$3,summaryCr!$G$3)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79600000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3806-4413-A61F-4989E136E6A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summaryCr!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cr_19 (exp7)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(summaryCr!$B$1:$E$1,summaryCr!$G$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>testLoss</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>testAcc</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>testUncer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>testTpr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>testRoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(summaryCr!$B$4:$E$4,summaryCr!$G$4)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.749</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3806-4413-A61F-4989E136E6A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="389986992"/>
+        <c:axId val="389987320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="389986992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389987320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="389987320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389986992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Exp7</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> chromosome performance per metric</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summaryCr!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testLoss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>summaryCr!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>cr_01 (exp7)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cr_09 (exp7)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cr_19 (exp7)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summaryCr!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.624</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-78F3-4595-B2F9-81454327C37C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summaryCr!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testAcc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>summaryCr!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>cr_01 (exp7)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cr_09 (exp7)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cr_19 (exp7)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summaryCr!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.70699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69099999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-78F3-4595-B2F9-81454327C37C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summaryCr!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testUncer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>summaryCr!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>cr_01 (exp7)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cr_09 (exp7)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cr_19 (exp7)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summaryCr!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14299999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-78F3-4595-B2F9-81454327C37C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summaryCr!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testTpr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>summaryCr!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>cr_01 (exp7)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cr_09 (exp7)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cr_19 (exp7)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summaryCr!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76500000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-78F3-4595-B2F9-81454327C37C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summaryCr!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testRoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>summaryCr!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>cr_01 (exp7)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cr_09 (exp7)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cr_19 (exp7)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summaryCr!$G$2:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.76800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.749</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-78F3-4595-B2F9-81454327C37C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="389986992"/>
+        <c:axId val="389987320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="389986992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389987320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="389987320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389986992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12657,6 +16075,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -18098,7 +21756,7 @@
 </file>
 
 <file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -18206,6 +21864,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -18216,6 +21879,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -18247,6 +21915,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -19117,6 +22788,3063 @@
 </file>
 
 <file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -23317,6 +30045,168 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{812C07A2-652B-477D-9E4C-64336BC2458F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B571D6F-6BB5-425D-BB4F-31A44D0D4B91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C848F832-05DE-4AC9-8ACE-2A4B59559B47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B40A7637-A1DF-42EF-90D5-079ACE76F7EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
@@ -23373,6 +30263,85 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ED569FF-818C-499D-ABE1-FBE1E5F8253D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC2A991A-6CE8-44EB-BA89-E6AD830A0876}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -24041,7 +31010,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="cage_Exp8"/>
+      <sheetName val="cage_ExpChromosome9_Processed"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -24067,202 +31036,202 @@
         </row>
         <row r="2">
           <cell r="B2">
-            <v>0.59299999999999997</v>
+            <v>0.61299999999999999</v>
           </cell>
           <cell r="E2">
-            <v>0.63600000000000001</v>
+            <v>0.629</v>
           </cell>
           <cell r="H2">
-            <v>0.59949999999999903</v>
+            <v>0.54100000000000004</v>
           </cell>
           <cell r="J2">
-            <v>0.13300000000000001</v>
+            <v>0.09</v>
           </cell>
           <cell r="K2">
-            <v>0.65449999999999997</v>
+            <v>0.68200000000000005</v>
           </cell>
           <cell r="M2">
-            <v>0.73249999999999904</v>
+            <v>0.82799999999999996</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.55200000000000005</v>
+            <v>0.57499999999999996</v>
           </cell>
           <cell r="E3">
             <v>0.65400000000000003</v>
           </cell>
           <cell r="H3">
-            <v>0.55649999999999999</v>
+            <v>0.52900000000000003</v>
           </cell>
           <cell r="J3">
-            <v>0.20250000000000001</v>
+            <v>0.13700000000000001</v>
           </cell>
           <cell r="K3">
-            <v>0.68100000000000005</v>
+            <v>0.72299999999999998</v>
           </cell>
           <cell r="M3">
-            <v>0.75749999999999995</v>
+            <v>0.83799999999999997</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0.53900000000000003</v>
+            <v>0.55900000000000005</v>
           </cell>
           <cell r="E4">
-            <v>0.65900000000000003</v>
+            <v>0.66200000000000003</v>
           </cell>
           <cell r="H4">
-            <v>0.57149999999999901</v>
+            <v>0.55500000000000005</v>
           </cell>
           <cell r="J4">
-            <v>0.1535</v>
+            <v>0.16800000000000001</v>
           </cell>
           <cell r="K4">
-            <v>0.64400000000000002</v>
+            <v>0.82299999999999995</v>
           </cell>
           <cell r="M4">
-            <v>0.77500000000000002</v>
+            <v>0.83399999999999996</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>0.51400000000000001</v>
+            <v>0.54600000000000004</v>
           </cell>
           <cell r="E5">
-            <v>0.69499999999999995</v>
+            <v>0.66400000000000003</v>
           </cell>
           <cell r="H5">
             <v>0.57099999999999995</v>
           </cell>
           <cell r="J5">
-            <v>0.214</v>
+            <v>0.15</v>
           </cell>
           <cell r="K5">
-            <v>0.76149999999999995</v>
+            <v>0.73299999999999998</v>
           </cell>
           <cell r="M5">
-            <v>0.76249999999999996</v>
+            <v>0.77600000000000002</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>0.49099999999999999</v>
+            <v>0.52500000000000002</v>
           </cell>
           <cell r="E6">
-            <v>0.72099999999999997</v>
+            <v>0.68700000000000006</v>
           </cell>
           <cell r="H6">
-            <v>0.57450000000000001</v>
+            <v>0.52800000000000002</v>
           </cell>
           <cell r="J6">
-            <v>0.1605</v>
+            <v>0.13900000000000001</v>
           </cell>
           <cell r="K6">
-            <v>0.71649999999999903</v>
+            <v>0.748</v>
           </cell>
           <cell r="M6">
-            <v>0.77449999999999997</v>
+            <v>0.79500000000000004</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>0.442</v>
+            <v>0.498</v>
           </cell>
           <cell r="E7">
-            <v>0.76</v>
+            <v>0.72799999999999998</v>
           </cell>
           <cell r="H7">
-            <v>0.60549999999999904</v>
+            <v>0.58499999999999996</v>
           </cell>
           <cell r="J7">
-            <v>0.1565</v>
+            <v>0.14599999999999999</v>
           </cell>
           <cell r="K7">
-            <v>0.72099999999999997</v>
+            <v>0.75800000000000001</v>
           </cell>
           <cell r="M7">
-            <v>0.75449999999999995</v>
+            <v>0.78800000000000003</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8">
-            <v>0.41099999999999998</v>
+            <v>0.47599999999999998</v>
           </cell>
           <cell r="E8">
-            <v>0.78800000000000003</v>
+            <v>0.746</v>
           </cell>
           <cell r="H8">
-            <v>0.60549999999999904</v>
+            <v>0.55500000000000005</v>
           </cell>
           <cell r="J8">
-            <v>0.14199999999999999</v>
+            <v>0.125</v>
           </cell>
           <cell r="K8">
-            <v>0.74849999999999905</v>
+            <v>0.77100000000000002</v>
           </cell>
           <cell r="M8">
-            <v>0.75700000000000001</v>
+            <v>0.81299999999999994</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>0.39200000000000002</v>
+            <v>0.45700000000000002</v>
           </cell>
           <cell r="E9">
-            <v>0.8</v>
+            <v>0.76500000000000001</v>
           </cell>
           <cell r="H9">
-            <v>0.60699999999999998</v>
+            <v>0.56399999999999995</v>
           </cell>
           <cell r="J9">
-            <v>0.14449999999999999</v>
+            <v>0.106</v>
           </cell>
           <cell r="K9">
-            <v>0.78300000000000003</v>
+            <v>0.74099999999999999</v>
           </cell>
           <cell r="M9">
-            <v>0.76</v>
+            <v>0.79800000000000004</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>0.39500000000000002</v>
+            <v>0.44900000000000001</v>
           </cell>
           <cell r="E10">
-            <v>0.80100000000000005</v>
+            <v>0.77200000000000002</v>
           </cell>
           <cell r="H10">
-            <v>0.60450000000000004</v>
+            <v>0.55100000000000005</v>
           </cell>
           <cell r="J10">
-            <v>0.13250000000000001</v>
+            <v>0.13300000000000001</v>
           </cell>
           <cell r="K10">
-            <v>0.73199999999999998</v>
+            <v>0.74199999999999999</v>
           </cell>
           <cell r="M10">
-            <v>0.75849999999999995</v>
+            <v>0.79800000000000004</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11">
-            <v>0.39300000000000002</v>
+            <v>0.45100000000000001</v>
           </cell>
           <cell r="E11">
-            <v>0.80300000000000005</v>
+            <v>0.78</v>
           </cell>
           <cell r="H11">
-            <v>0.60349999999999904</v>
+            <v>0.55000000000000004</v>
           </cell>
           <cell r="J11">
-            <v>0.13800000000000001</v>
+            <v>0.13300000000000001</v>
           </cell>
           <cell r="K11">
-            <v>0.73599999999999999</v>
+            <v>0.73399999999999999</v>
           </cell>
           <cell r="M11">
-            <v>0.75849999999999995</v>
+            <v>0.79600000000000004</v>
           </cell>
         </row>
       </sheetData>
@@ -24275,7 +31244,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="cage_Exp9"/>
+      <sheetName val="cage_ExpChromosome19_Processed"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -24301,202 +31270,202 @@
         </row>
         <row r="2">
           <cell r="B2">
-            <v>0.57099999999999995</v>
+            <v>0.61549999999999905</v>
           </cell>
           <cell r="E2">
-            <v>0.64400000000000002</v>
+            <v>0.63500000000000001</v>
           </cell>
           <cell r="H2">
-            <v>0.5605</v>
+            <v>0.61799999999999999</v>
           </cell>
           <cell r="J2">
-            <v>0.17399999999999999</v>
+            <v>0.187</v>
           </cell>
           <cell r="K2">
-            <v>0.64900000000000002</v>
+            <v>0.79</v>
           </cell>
           <cell r="M2">
-            <v>0.79449999999999998</v>
+            <v>0.73299999999999998</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.54800000000000004</v>
+            <v>0.57749999999999901</v>
           </cell>
           <cell r="E3">
-            <v>0.66200000000000003</v>
+            <v>0.65949999999999998</v>
           </cell>
           <cell r="H3">
-            <v>0.54149999999999998</v>
+            <v>0.66500000000000004</v>
           </cell>
           <cell r="J3">
-            <v>0.16950000000000001</v>
+            <v>0.20300000000000001</v>
           </cell>
           <cell r="K3">
-            <v>0.66700000000000004</v>
+            <v>0.877</v>
           </cell>
           <cell r="M3">
-            <v>0.79100000000000004</v>
+            <v>0.72399999999999998</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0.53700000000000003</v>
+            <v>0.56399999999999995</v>
           </cell>
           <cell r="E4">
-            <v>0.67900000000000005</v>
+            <v>0.66</v>
           </cell>
           <cell r="H4">
-            <v>0.53349999999999997</v>
+            <v>0.67700000000000005</v>
           </cell>
           <cell r="J4">
-            <v>0.218</v>
+            <v>0.129</v>
           </cell>
           <cell r="K4">
-            <v>0.71199999999999997</v>
+            <v>0.79600000000000004</v>
           </cell>
           <cell r="M4">
-            <v>0.8075</v>
+            <v>0.74</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>0.52900000000000003</v>
+            <v>0.55300000000000005</v>
           </cell>
           <cell r="E5">
-            <v>0.68400000000000005</v>
+            <v>0.66849999999999998</v>
           </cell>
           <cell r="H5">
-            <v>0.54400000000000004</v>
+            <v>0.73</v>
           </cell>
           <cell r="J5">
-            <v>0.23150000000000001</v>
+            <v>0.108</v>
           </cell>
           <cell r="K5">
-            <v>0.68</v>
+            <v>0.85599999999999998</v>
           </cell>
           <cell r="M5">
-            <v>0.79149999999999998</v>
+            <v>0.71399999999999997</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>0.497</v>
+            <v>0.53600000000000003</v>
           </cell>
           <cell r="E6">
-            <v>0.72</v>
+            <v>0.67449999999999999</v>
           </cell>
           <cell r="H6">
-            <v>0.54649999999999999</v>
+            <v>0.61899999999999999</v>
           </cell>
           <cell r="J6">
-            <v>0.14149999999999999</v>
+            <v>0.16600000000000001</v>
           </cell>
           <cell r="K6">
-            <v>0.70050000000000001</v>
+            <v>0.63700000000000001</v>
           </cell>
           <cell r="M6">
-            <v>0.8135</v>
+            <v>0.751</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>0.46800000000000003</v>
+            <v>0.51249999999999996</v>
           </cell>
           <cell r="E7">
-            <v>0.751</v>
+            <v>0.69849999999999901</v>
           </cell>
           <cell r="H7">
-            <v>0.57349999999999901</v>
+            <v>0.64900000000000002</v>
           </cell>
           <cell r="J7">
-            <v>0.1605</v>
+            <v>0.154</v>
           </cell>
           <cell r="K7">
-            <v>0.73899999999999999</v>
+            <v>0.57499999999999996</v>
           </cell>
           <cell r="M7">
-            <v>0.78400000000000003</v>
+            <v>0.74099999999999999</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8">
-            <v>0.43099999999999999</v>
+            <v>0.49299999999999999</v>
           </cell>
           <cell r="E8">
-            <v>0.78500000000000003</v>
+            <v>0.73350000000000004</v>
           </cell>
           <cell r="H8">
-            <v>0.60050000000000003</v>
+            <v>0.628</v>
           </cell>
           <cell r="J8">
-            <v>0.14149999999999999</v>
+            <v>0.13100000000000001</v>
           </cell>
           <cell r="K8">
-            <v>0.73350000000000004</v>
+            <v>0.73099999999999998</v>
           </cell>
           <cell r="M8">
-            <v>0.75</v>
+            <v>0.74099999999999999</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>0.40300000000000002</v>
+            <v>0.47099999999999997</v>
           </cell>
           <cell r="E9">
-            <v>0.79700000000000004</v>
+            <v>0.749</v>
           </cell>
           <cell r="H9">
-            <v>0.60250000000000004</v>
+            <v>0.63400000000000001</v>
           </cell>
           <cell r="J9">
-            <v>0.13700000000000001</v>
+            <v>0.14099999999999999</v>
           </cell>
           <cell r="K9">
-            <v>0.71550000000000002</v>
+            <v>0.75800000000000001</v>
           </cell>
           <cell r="M9">
-            <v>0.75749999999999995</v>
+            <v>0.748</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>0.39300000000000002</v>
+            <v>0.46700000000000003</v>
           </cell>
           <cell r="E10">
-            <v>0.80400000000000005</v>
+            <v>0.75449999999999995</v>
           </cell>
           <cell r="H10">
-            <v>0.61</v>
+            <v>0.63600000000000001</v>
           </cell>
           <cell r="J10">
-            <v>0.13700000000000001</v>
+            <v>0.151</v>
           </cell>
           <cell r="K10">
-            <v>0.66449999999999998</v>
+            <v>0.79500000000000004</v>
           </cell>
           <cell r="M10">
-            <v>0.77349999999999997</v>
+            <v>0.747</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11">
-            <v>0.39300000000000002</v>
+            <v>0.46550000000000002</v>
           </cell>
           <cell r="E11">
-            <v>0.80300000000000005</v>
+            <v>0.751</v>
           </cell>
           <cell r="H11">
-            <v>0.60650000000000004</v>
+            <v>0.63100000000000001</v>
           </cell>
           <cell r="J11">
-            <v>0.13</v>
+            <v>0.14299999999999999</v>
           </cell>
           <cell r="K11">
-            <v>0.69299999999999995</v>
+            <v>0.76500000000000001</v>
           </cell>
           <cell r="M11">
-            <v>0.77</v>
+            <v>0.749</v>
           </cell>
         </row>
       </sheetData>
@@ -24804,7 +31773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12138A20-3EBA-4576-8088-026836D83B24}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -25451,11 +32420,939 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3B4777-DB4E-4B61-9FD2-BFFEDF2065D5}">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="D2">
+        <v>0.27</v>
+      </c>
+      <c r="E2">
+        <v>0.629</v>
+      </c>
+      <c r="F2">
+        <v>0.749</v>
+      </c>
+      <c r="G2">
+        <v>0.752</v>
+      </c>
+      <c r="H2">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="I2">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="J2">
+        <v>0.09</v>
+      </c>
+      <c r="K2">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="L2">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="M2">
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="C3">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="D3">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="F3">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="G3">
+        <v>0.78</v>
+      </c>
+      <c r="H3">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="I3">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="J3">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="K3">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="L3">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="M3">
+        <v>0.83799999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="C4">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="D4">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="F4">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="H4">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="I4">
+        <v>0.75</v>
+      </c>
+      <c r="J4">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="K4">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="L4">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="M4">
+        <v>0.83399999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="C5">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="F5">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="G5">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="H5">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="I5">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="J5">
+        <v>0.15</v>
+      </c>
+      <c r="K5">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="L5">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="M5">
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="C6">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.192</v>
+      </c>
+      <c r="E6">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="F6">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="G6">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="H6">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="I6">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="J6">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.748</v>
+      </c>
+      <c r="L6">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="M6">
+        <v>0.79500000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.498</v>
+      </c>
+      <c r="C7">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.183</v>
+      </c>
+      <c r="E7">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="F7">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="G7">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="H7">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="I7">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="J7">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="K7">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="L7">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="M7">
+        <v>0.78800000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="C8">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="D8">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.746</v>
+      </c>
+      <c r="F8">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="G8">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="I8">
+        <v>0.7</v>
+      </c>
+      <c r="J8">
+        <v>0.125</v>
+      </c>
+      <c r="K8">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="L8">
+        <v>0.749</v>
+      </c>
+      <c r="M8">
+        <v>0.81299999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="C9">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="D9">
+        <v>0.16</v>
+      </c>
+      <c r="E9">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.82</v>
+      </c>
+      <c r="G9">
+        <v>0.877</v>
+      </c>
+      <c r="H9">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="I9">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="J9">
+        <v>0.106</v>
+      </c>
+      <c r="K9">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="L9">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="M9">
+        <v>0.79800000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="D10">
+        <v>0.153</v>
+      </c>
+      <c r="E10">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="F10">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="G10">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="I10">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="J10">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="K10">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="L10">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="M10">
+        <v>0.79800000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="D11">
+        <v>0.15</v>
+      </c>
+      <c r="E11">
+        <v>0.78</v>
+      </c>
+      <c r="F11">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="G11">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="H11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I11">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="J11">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="K11">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="L11">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="M11">
+        <v>0.79600000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0738772E-F04D-4FF1-8C88-481F02D6E07D}">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.61549999999999905</v>
+      </c>
+      <c r="C2">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="D2">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="F2">
+        <v>0.74449999999999905</v>
+      </c>
+      <c r="G2">
+        <v>0.749</v>
+      </c>
+      <c r="H2">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.65</v>
+      </c>
+      <c r="J2">
+        <v>0.187</v>
+      </c>
+      <c r="K2">
+        <v>0.79</v>
+      </c>
+      <c r="L2">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="M2">
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.57749999999999901</v>
+      </c>
+      <c r="C3">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="D3">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.65949999999999998</v>
+      </c>
+      <c r="F3">
+        <v>0.76</v>
+      </c>
+      <c r="G3">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="H3">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="I3">
+        <v>0.621</v>
+      </c>
+      <c r="J3">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="K3">
+        <v>0.877</v>
+      </c>
+      <c r="L3">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="M3">
+        <v>0.72399999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="C4">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="D4">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.66</v>
+      </c>
+      <c r="F4">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="G4">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="H4">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="I4">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="J4">
+        <v>0.129</v>
+      </c>
+      <c r="K4">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="L4">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="M4">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="C5">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.1875</v>
+      </c>
+      <c r="E5">
+        <v>0.66849999999999998</v>
+      </c>
+      <c r="F5">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="G5">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="H5">
+        <v>0.73</v>
+      </c>
+      <c r="I5">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="J5">
+        <v>0.108</v>
+      </c>
+      <c r="K5">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="L5">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="M5">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="C6">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.19950000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.67449999999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.80349999999999999</v>
+      </c>
+      <c r="G6">
+        <v>0.8085</v>
+      </c>
+      <c r="H6">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.68</v>
+      </c>
+      <c r="J6">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="L6">
+        <v>0.75</v>
+      </c>
+      <c r="M6">
+        <v>0.751</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="C7">
+        <v>0.754</v>
+      </c>
+      <c r="D7">
+        <v>0.19350000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.69849999999999901</v>
+      </c>
+      <c r="F7">
+        <v>0.80549999999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="H7">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="I7">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="J7">
+        <v>0.154</v>
+      </c>
+      <c r="K7">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="L7">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="M7">
+        <v>0.74099999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.191</v>
+      </c>
+      <c r="E8">
+        <v>0.73350000000000004</v>
+      </c>
+      <c r="F8">
+        <v>0.80449999999999999</v>
+      </c>
+      <c r="G8">
+        <v>0.84549999999999903</v>
+      </c>
+      <c r="H8">
+        <v>0.628</v>
+      </c>
+      <c r="I8">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="J8">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="K8">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="L8">
+        <v>0.65</v>
+      </c>
+      <c r="M8">
+        <v>0.74099999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="C9">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="D9">
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.749</v>
+      </c>
+      <c r="F9">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="G9">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="J9">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="K9">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="L9">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="M9">
+        <v>0.748</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="C10">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="D10">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.75449999999999995</v>
+      </c>
+      <c r="F10">
+        <v>0.82349999999999901</v>
+      </c>
+      <c r="G10">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="J10">
+        <v>0.151</v>
+      </c>
+      <c r="K10">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="L10">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="M10">
+        <v>0.747</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.46550000000000002</v>
+      </c>
+      <c r="C11">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="D11">
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.751</v>
+      </c>
+      <c r="F11">
+        <v>0.82450000000000001</v>
+      </c>
+      <c r="G11">
+        <v>0.872</v>
+      </c>
+      <c r="H11">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="J11">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="K11">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="L11">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="M11">
+        <v>0.749</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B92C48D6-8737-4EB8-B2C8-FFDD3A782A6A}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25685,6 +33582,114 @@
       </c>
       <c r="G10">
         <v>0.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFCF0A3-9012-4223-93C6-2F4A68984478}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>0.624</v>
+      </c>
+      <c r="C2">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="D2">
+        <v>0.129</v>
+      </c>
+      <c r="E2">
+        <v>0.74</v>
+      </c>
+      <c r="F2">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="G2">
+        <v>0.76800000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C3">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="D3">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="G3">
+        <v>0.79600000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="D4">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="G4">
+        <v>0.749</v>
       </c>
     </row>
   </sheetData>
@@ -25697,7 +33702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F164CB2-20FA-4F7D-85C4-CC38BB64B874}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H11" sqref="H11:M11"/>
     </sheetView>
   </sheetViews>
